--- a/files/separadas/repeat_p36.xlsx
+++ b/files/separadas/repeat_p36.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="197">
   <si>
     <t>p36_cod</t>
   </si>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>https://aplicaciones.metrodebogota.gov.co/</t>
@@ -991,13 +979,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S79"/>
+  <dimension ref="A1:O79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,31 +1031,19 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1076,39 +1052,27 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J2" s="3">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>199</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -1117,39 +1081,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J3" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M3" t="s">
-        <v>199</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -1158,39 +1110,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J4" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M4" t="s">
-        <v>199</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -1199,39 +1139,27 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J5" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M5" t="s">
-        <v>199</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -1240,39 +1168,27 @@
         <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J6" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M6" t="s">
-        <v>199</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -1281,39 +1197,27 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J7" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -1322,39 +1226,27 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J8" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M8" t="s">
-        <v>199</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -1363,39 +1255,27 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J9" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M9" t="s">
-        <v>199</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -1404,39 +1284,27 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J10" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M10" t="s">
-        <v>199</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -1445,39 +1313,27 @@
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J11" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M11" t="s">
-        <v>200</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G12">
         <v>16</v>
@@ -1486,39 +1342,27 @@
         <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J12" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M12" t="s">
-        <v>199</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G13">
         <v>17</v>
@@ -1527,39 +1371,27 @@
         <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J13" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M13" t="s">
-        <v>199</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G14">
         <v>17</v>
@@ -1568,39 +1400,27 @@
         <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J14" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M14" t="s">
-        <v>199</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G15">
         <v>17</v>
@@ -1609,39 +1429,27 @@
         <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J15" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M15" t="s">
-        <v>199</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G16">
         <v>18</v>
@@ -1650,39 +1458,27 @@
         <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J16" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M16" t="s">
-        <v>199</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G17">
         <v>19</v>
@@ -1691,39 +1487,27 @@
         <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J17" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M17" t="s">
-        <v>199</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G18">
         <v>19</v>
@@ -1732,39 +1516,27 @@
         <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J18" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M18" t="s">
-        <v>199</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G19">
         <v>20</v>
@@ -1773,39 +1545,27 @@
         <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J19" s="3">
         <v>45030.95898148148</v>
       </c>
       <c r="M19" t="s">
-        <v>199</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G20">
         <v>21</v>
@@ -1814,39 +1574,27 @@
         <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J20" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M20" t="s">
-        <v>199</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G21">
         <v>22</v>
@@ -1855,39 +1603,27 @@
         <v>37</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J21" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M21" t="s">
-        <v>199</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G22">
         <v>22</v>
@@ -1896,39 +1632,27 @@
         <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J22" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M22" t="s">
-        <v>199</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G23">
         <v>23</v>
@@ -1937,39 +1661,27 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M23" t="s">
-        <v>199</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -1978,39 +1690,27 @@
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M24" t="s">
-        <v>199</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G25">
         <v>23</v>
@@ -2019,39 +1719,27 @@
         <v>38</v>
       </c>
       <c r="I25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J25" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M25" t="s">
-        <v>199</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -2060,39 +1748,27 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J26" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M26" t="s">
-        <v>199</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G27">
         <v>23</v>
@@ -2101,39 +1777,27 @@
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J27" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M27" t="s">
-        <v>199</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G28">
         <v>23</v>
@@ -2142,39 +1806,27 @@
         <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J28" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M28" t="s">
-        <v>199</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -2183,39 +1835,27 @@
         <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J29" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M29" t="s">
-        <v>199</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G30">
         <v>23</v>
@@ -2224,39 +1864,27 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J30" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M30" t="s">
-        <v>199</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G31">
         <v>23</v>
@@ -2265,39 +1893,27 @@
         <v>38</v>
       </c>
       <c r="I31" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J31" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M31" t="s">
-        <v>199</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G32">
         <v>23</v>
@@ -2306,39 +1922,27 @@
         <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J32" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M32" t="s">
-        <v>199</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G33">
         <v>23</v>
@@ -2347,39 +1951,27 @@
         <v>38</v>
       </c>
       <c r="I33" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J33" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M33" t="s">
-        <v>199</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G34">
         <v>23</v>
@@ -2388,39 +1980,27 @@
         <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J34" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M34" t="s">
-        <v>199</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G35">
         <v>23</v>
@@ -2429,39 +2009,27 @@
         <v>38</v>
       </c>
       <c r="I35" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J35" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M35" t="s">
-        <v>199</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G36">
         <v>24</v>
@@ -2470,39 +2038,27 @@
         <v>51</v>
       </c>
       <c r="I36" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J36" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M36" t="s">
-        <v>200</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G37">
         <v>24</v>
@@ -2511,39 +2067,27 @@
         <v>51</v>
       </c>
       <c r="I37" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J37" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M37" t="s">
-        <v>200</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G38">
         <v>27</v>
@@ -2552,39 +2096,27 @@
         <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J38" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M38" t="s">
-        <v>199</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G39">
         <v>28</v>
@@ -2593,39 +2125,27 @@
         <v>57</v>
       </c>
       <c r="I39" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J39" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M39" t="s">
-        <v>199</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G40">
         <v>29</v>
@@ -2634,39 +2154,27 @@
         <v>58</v>
       </c>
       <c r="I40" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J40" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M40" t="s">
-        <v>199</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G41">
         <v>30</v>
@@ -2675,39 +2183,27 @@
         <v>59</v>
       </c>
       <c r="I41" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J41" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M41" t="s">
-        <v>199</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G42">
         <v>31</v>
@@ -2716,39 +2212,27 @@
         <v>60</v>
       </c>
       <c r="I42" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J42" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M42" t="s">
-        <v>199</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G43">
         <v>32</v>
@@ -2757,39 +2241,27 @@
         <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J43" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M43" t="s">
-        <v>199</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G44">
         <v>33</v>
@@ -2798,39 +2270,27 @@
         <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J44" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M44" t="s">
-        <v>199</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G45">
         <v>34</v>
@@ -2839,39 +2299,27 @@
         <v>64</v>
       </c>
       <c r="I45" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J45" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M45" t="s">
-        <v>199</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G46">
         <v>37</v>
@@ -2880,39 +2328,27 @@
         <v>78</v>
       </c>
       <c r="I46" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J46" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M46" t="s">
-        <v>199</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G47">
         <v>39</v>
@@ -2921,39 +2357,27 @@
         <v>81</v>
       </c>
       <c r="I47" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J47" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M47" t="s">
-        <v>199</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G48">
         <v>39</v>
@@ -2962,39 +2386,27 @@
         <v>81</v>
       </c>
       <c r="I48" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J48" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M48" t="s">
-        <v>199</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G49">
         <v>39</v>
@@ -3003,39 +2415,27 @@
         <v>81</v>
       </c>
       <c r="I49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J49" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M49" t="s">
-        <v>199</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G50">
         <v>39</v>
@@ -3044,39 +2444,27 @@
         <v>81</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J50" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M50" t="s">
-        <v>199</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G51">
         <v>39</v>
@@ -3085,39 +2473,27 @@
         <v>81</v>
       </c>
       <c r="I51" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J51" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M51" t="s">
-        <v>199</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G52">
         <v>39</v>
@@ -3126,39 +2502,27 @@
         <v>81</v>
       </c>
       <c r="I52" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J52" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M52" t="s">
-        <v>199</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G53">
         <v>39</v>
@@ -3167,39 +2531,27 @@
         <v>81</v>
       </c>
       <c r="I53" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J53" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M53" t="s">
-        <v>199</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G54">
         <v>39</v>
@@ -3208,39 +2560,27 @@
         <v>81</v>
       </c>
       <c r="I54" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J54" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M54" t="s">
-        <v>199</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G55">
         <v>39</v>
@@ -3249,39 +2589,27 @@
         <v>81</v>
       </c>
       <c r="I55" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J55" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M55" t="s">
-        <v>199</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G56">
         <v>39</v>
@@ -3290,39 +2618,27 @@
         <v>81</v>
       </c>
       <c r="I56" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J56" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M56" t="s">
-        <v>199</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G57">
         <v>42</v>
@@ -3331,39 +2647,27 @@
         <v>84</v>
       </c>
       <c r="I57" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J57" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M57" t="s">
-        <v>199</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G58">
         <v>44</v>
@@ -3372,39 +2676,27 @@
         <v>87</v>
       </c>
       <c r="I58" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J58" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M58" t="s">
-        <v>199</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G59">
         <v>45</v>
@@ -3413,39 +2705,27 @@
         <v>88</v>
       </c>
       <c r="I59" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J59" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M59" t="s">
-        <v>200</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G60">
         <v>45</v>
@@ -3454,39 +2734,27 @@
         <v>88</v>
       </c>
       <c r="I60" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J60" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M60" t="s">
-        <v>200</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G61">
         <v>45</v>
@@ -3495,39 +2763,27 @@
         <v>88</v>
       </c>
       <c r="I61" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J61" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M61" t="s">
-        <v>200</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G62">
         <v>45</v>
@@ -3536,39 +2792,27 @@
         <v>88</v>
       </c>
       <c r="I62" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J62" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M62" t="s">
-        <v>200</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G63">
         <v>46</v>
@@ -3577,39 +2821,27 @@
         <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J63" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M63" t="s">
-        <v>199</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G64">
         <v>46</v>
@@ -3618,39 +2850,27 @@
         <v>90</v>
       </c>
       <c r="I64" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J64" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M64" t="s">
-        <v>199</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G65">
         <v>49</v>
@@ -3659,39 +2879,27 @@
         <v>93</v>
       </c>
       <c r="I65" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J65" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M65" t="s">
-        <v>199</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G66">
         <v>50</v>
@@ -3700,39 +2908,27 @@
         <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J66" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M66" t="s">
-        <v>199</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G67">
         <v>51</v>
@@ -3741,39 +2937,27 @@
         <v>95</v>
       </c>
       <c r="I67" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J67" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M67" t="s">
-        <v>199</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G68">
         <v>53</v>
@@ -3782,39 +2966,27 @@
         <v>98</v>
       </c>
       <c r="I68" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J68" s="3">
         <v>45044.94196759259</v>
       </c>
       <c r="M68" t="s">
-        <v>200</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G69">
         <v>54</v>
@@ -3823,39 +2995,27 @@
         <v>99</v>
       </c>
       <c r="I69" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J69" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M69" t="s">
-        <v>199</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G70">
         <v>55</v>
@@ -3864,39 +3024,27 @@
         <v>100</v>
       </c>
       <c r="I70" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J70" s="3">
         <v>45044.97079861111</v>
       </c>
       <c r="M70" t="s">
-        <v>199</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G71">
         <v>56</v>
@@ -3905,39 +3053,27 @@
         <v>101</v>
       </c>
       <c r="I71" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J71" s="3">
         <v>45044.98814814815</v>
       </c>
       <c r="M71" t="s">
-        <v>199</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G72">
         <v>57</v>
@@ -3946,39 +3082,27 @@
         <v>102</v>
       </c>
       <c r="I72" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J72" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M72" t="s">
-        <v>199</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G73">
         <v>59</v>
@@ -3987,39 +3111,27 @@
         <v>104</v>
       </c>
       <c r="I73" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J73" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M73" t="s">
-        <v>199</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G74">
         <v>60</v>
@@ -4028,39 +3140,27 @@
         <v>105</v>
       </c>
       <c r="I74" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J74" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M74" t="s">
-        <v>199</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G75">
         <v>61</v>
@@ -4069,39 +3169,27 @@
         <v>106</v>
       </c>
       <c r="I75" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J75" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M75" t="s">
-        <v>199</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G76">
         <v>65</v>
@@ -4110,39 +3198,27 @@
         <v>111</v>
       </c>
       <c r="I76" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J76" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M76" t="s">
-        <v>199</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G77">
         <v>66</v>
@@ -4151,39 +3227,27 @@
         <v>113</v>
       </c>
       <c r="I77" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J77" s="3">
         <v>45046.88504629629</v>
       </c>
       <c r="M77" t="s">
-        <v>199</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G78">
         <v>68</v>
@@ -4192,39 +3256,27 @@
         <v>115</v>
       </c>
       <c r="I78" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J78" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M78" t="s">
-        <v>200</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G79">
         <v>71</v>
@@ -4233,25 +3285,13 @@
         <v>119</v>
       </c>
       <c r="I79" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J79" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M79" t="s">
-        <v>199</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p36.xlsx
+++ b/files/separadas/repeat_p36.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="198">
   <si>
     <t>p36_cod</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>https://aplicaciones.metrodebogota.gov.co/</t>
@@ -979,13 +982,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,19 +1034,22 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1052,27 +1058,30 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J2" s="3">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>196</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -1081,27 +1090,30 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J3" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>196</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -1110,27 +1122,30 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J4" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>196</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -1139,27 +1154,30 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J5" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>196</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -1168,27 +1186,30 @@
         <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J6" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>196</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -1197,27 +1218,30 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J7" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>196</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -1226,27 +1250,30 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J8" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>196</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -1255,27 +1282,30 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J9" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>196</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -1284,27 +1314,30 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J10" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>196</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -1313,27 +1346,30 @@
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J11" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>197</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G12">
         <v>16</v>
@@ -1342,27 +1378,30 @@
         <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J12" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>196</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G13">
         <v>17</v>
@@ -1371,27 +1410,30 @@
         <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J13" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>196</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G14">
         <v>17</v>
@@ -1400,27 +1442,30 @@
         <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J14" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>196</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G15">
         <v>17</v>
@@ -1429,27 +1474,30 @@
         <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J15" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>196</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G16">
         <v>18</v>
@@ -1458,27 +1506,30 @@
         <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J16" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G17">
         <v>19</v>
@@ -1487,27 +1538,30 @@
         <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J17" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G18">
         <v>19</v>
@@ -1516,27 +1570,30 @@
         <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J18" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G19">
         <v>20</v>
@@ -1545,27 +1602,30 @@
         <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J19" s="3">
         <v>45030.95898148148</v>
       </c>
       <c r="M19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G20">
         <v>21</v>
@@ -1574,27 +1634,30 @@
         <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J20" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M20" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G21">
         <v>22</v>
@@ -1603,27 +1666,30 @@
         <v>37</v>
       </c>
       <c r="I21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J21" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22">
         <v>22</v>
@@ -1632,27 +1698,30 @@
         <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J22" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G23">
         <v>23</v>
@@ -1661,27 +1730,30 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -1690,27 +1762,30 @@
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M24" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G25">
         <v>23</v>
@@ -1719,27 +1794,30 @@
         <v>38</v>
       </c>
       <c r="I25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J25" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -1748,27 +1826,30 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J26" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G27">
         <v>23</v>
@@ -1777,27 +1858,30 @@
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J27" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G28">
         <v>23</v>
@@ -1806,27 +1890,30 @@
         <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J28" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M28" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -1835,27 +1922,30 @@
         <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J29" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G30">
         <v>23</v>
@@ -1864,27 +1954,30 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J30" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M30" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G31">
         <v>23</v>
@@ -1893,27 +1986,30 @@
         <v>38</v>
       </c>
       <c r="I31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J31" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M31" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G32">
         <v>23</v>
@@ -1922,27 +2018,30 @@
         <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J32" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M32" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G33">
         <v>23</v>
@@ -1951,27 +2050,30 @@
         <v>38</v>
       </c>
       <c r="I33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J33" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G34">
         <v>23</v>
@@ -1980,27 +2082,30 @@
         <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J34" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M34" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G35">
         <v>23</v>
@@ -2009,27 +2114,30 @@
         <v>38</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J35" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G36">
         <v>24</v>
@@ -2038,27 +2146,30 @@
         <v>51</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J36" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M36" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>197</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G37">
         <v>24</v>
@@ -2067,27 +2178,30 @@
         <v>51</v>
       </c>
       <c r="I37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J37" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M37" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>197</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G38">
         <v>27</v>
@@ -2096,27 +2210,30 @@
         <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J38" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M38" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G39">
         <v>28</v>
@@ -2125,27 +2242,30 @@
         <v>57</v>
       </c>
       <c r="I39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J39" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M39" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G40">
         <v>29</v>
@@ -2154,27 +2274,30 @@
         <v>58</v>
       </c>
       <c r="I40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J40" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M40" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G41">
         <v>30</v>
@@ -2183,27 +2306,30 @@
         <v>59</v>
       </c>
       <c r="I41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J41" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M41" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G42">
         <v>31</v>
@@ -2212,27 +2338,30 @@
         <v>60</v>
       </c>
       <c r="I42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J42" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G43">
         <v>32</v>
@@ -2241,27 +2370,30 @@
         <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J43" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G44">
         <v>33</v>
@@ -2270,27 +2402,30 @@
         <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J44" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M44" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G45">
         <v>34</v>
@@ -2299,27 +2434,30 @@
         <v>64</v>
       </c>
       <c r="I45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J45" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G46">
         <v>37</v>
@@ -2328,27 +2466,30 @@
         <v>78</v>
       </c>
       <c r="I46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J46" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M46" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G47">
         <v>39</v>
@@ -2357,27 +2498,30 @@
         <v>81</v>
       </c>
       <c r="I47" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J47" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M47" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G48">
         <v>39</v>
@@ -2386,27 +2530,30 @@
         <v>81</v>
       </c>
       <c r="I48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J48" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M48" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G49">
         <v>39</v>
@@ -2415,27 +2562,30 @@
         <v>81</v>
       </c>
       <c r="I49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J49" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M49" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G50">
         <v>39</v>
@@ -2444,27 +2594,30 @@
         <v>81</v>
       </c>
       <c r="I50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J50" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M50" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G51">
         <v>39</v>
@@ -2473,27 +2626,30 @@
         <v>81</v>
       </c>
       <c r="I51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J51" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G52">
         <v>39</v>
@@ -2502,27 +2658,30 @@
         <v>81</v>
       </c>
       <c r="I52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J52" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M52" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G53">
         <v>39</v>
@@ -2531,27 +2690,30 @@
         <v>81</v>
       </c>
       <c r="I53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J53" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M53" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G54">
         <v>39</v>
@@ -2560,27 +2722,30 @@
         <v>81</v>
       </c>
       <c r="I54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J54" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M54" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G55">
         <v>39</v>
@@ -2589,27 +2754,30 @@
         <v>81</v>
       </c>
       <c r="I55" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J55" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M55" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G56">
         <v>39</v>
@@ -2618,27 +2786,30 @@
         <v>81</v>
       </c>
       <c r="I56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J56" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M56" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G57">
         <v>42</v>
@@ -2647,27 +2818,30 @@
         <v>84</v>
       </c>
       <c r="I57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J57" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M57" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G58">
         <v>44</v>
@@ -2676,27 +2850,30 @@
         <v>87</v>
       </c>
       <c r="I58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J58" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M58" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G59">
         <v>45</v>
@@ -2705,27 +2882,30 @@
         <v>88</v>
       </c>
       <c r="I59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J59" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M59" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>197</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G60">
         <v>45</v>
@@ -2734,27 +2914,30 @@
         <v>88</v>
       </c>
       <c r="I60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J60" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M60" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>197</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G61">
         <v>45</v>
@@ -2763,27 +2946,30 @@
         <v>88</v>
       </c>
       <c r="I61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J61" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M61" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>197</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G62">
         <v>45</v>
@@ -2792,27 +2978,30 @@
         <v>88</v>
       </c>
       <c r="I62" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J62" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M62" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>197</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G63">
         <v>46</v>
@@ -2821,27 +3010,30 @@
         <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J63" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M63" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G64">
         <v>46</v>
@@ -2850,27 +3042,30 @@
         <v>90</v>
       </c>
       <c r="I64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J64" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M64" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G65">
         <v>49</v>
@@ -2879,27 +3074,30 @@
         <v>93</v>
       </c>
       <c r="I65" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J65" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M65" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G66">
         <v>50</v>
@@ -2908,27 +3106,30 @@
         <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J66" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M66" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G67">
         <v>51</v>
@@ -2937,27 +3138,30 @@
         <v>95</v>
       </c>
       <c r="I67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J67" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M67" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G68">
         <v>53</v>
@@ -2966,27 +3170,30 @@
         <v>98</v>
       </c>
       <c r="I68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J68" s="3">
         <v>45044.94196759259</v>
       </c>
       <c r="M68" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>197</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G69">
         <v>54</v>
@@ -2995,27 +3202,30 @@
         <v>99</v>
       </c>
       <c r="I69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J69" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G70">
         <v>55</v>
@@ -3024,27 +3234,30 @@
         <v>100</v>
       </c>
       <c r="I70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J70" s="3">
         <v>45044.97079861111</v>
       </c>
       <c r="M70" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G71">
         <v>56</v>
@@ -3053,27 +3266,30 @@
         <v>101</v>
       </c>
       <c r="I71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J71" s="3">
         <v>45044.98814814815</v>
       </c>
       <c r="M71" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G72">
         <v>57</v>
@@ -3082,27 +3298,30 @@
         <v>102</v>
       </c>
       <c r="I72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J72" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M72" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G73">
         <v>59</v>
@@ -3111,27 +3330,30 @@
         <v>104</v>
       </c>
       <c r="I73" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J73" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M73" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G74">
         <v>60</v>
@@ -3140,27 +3362,30 @@
         <v>105</v>
       </c>
       <c r="I74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J74" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M74" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G75">
         <v>61</v>
@@ -3169,27 +3394,30 @@
         <v>106</v>
       </c>
       <c r="I75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J75" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M75" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G76">
         <v>65</v>
@@ -3198,27 +3426,30 @@
         <v>111</v>
       </c>
       <c r="I76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J76" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M76" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G77">
         <v>66</v>
@@ -3227,27 +3458,30 @@
         <v>113</v>
       </c>
       <c r="I77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J77" s="3">
         <v>45046.88504629629</v>
       </c>
       <c r="M77" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>196</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G78">
         <v>68</v>
@@ -3256,27 +3490,30 @@
         <v>115</v>
       </c>
       <c r="I78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J78" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M78" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>197</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G79">
         <v>71</v>
@@ -3285,13 +3522,16 @@
         <v>119</v>
       </c>
       <c r="I79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J79" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M79" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p36.xlsx
+++ b/files/separadas/repeat_p36.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="199">
   <si>
     <t>p36_cod</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>c1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -982,13 +985,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,19 +1040,22 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1058,30 +1064,33 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J2" s="3">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -1090,30 +1099,33 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J3" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -1122,30 +1134,33 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J4" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -1154,30 +1169,33 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J5" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -1186,30 +1204,33 @@
         <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J6" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -1218,30 +1239,33 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J7" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -1250,30 +1274,33 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J8" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -1282,30 +1309,33 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J9" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -1314,30 +1344,33 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J10" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -1346,30 +1379,33 @@
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J11" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G12">
         <v>16</v>
@@ -1378,30 +1414,33 @@
         <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J12" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G13">
         <v>17</v>
@@ -1410,30 +1449,33 @@
         <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J13" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G14">
         <v>17</v>
@@ -1442,30 +1484,33 @@
         <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J14" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G15">
         <v>17</v>
@@ -1474,30 +1519,33 @@
         <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J15" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G16">
         <v>18</v>
@@ -1506,30 +1554,33 @@
         <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J16" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G17">
         <v>19</v>
@@ -1538,30 +1589,33 @@
         <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J17" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G18">
         <v>19</v>
@@ -1570,30 +1624,33 @@
         <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J18" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G19">
         <v>20</v>
@@ -1602,30 +1659,33 @@
         <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J19" s="3">
         <v>45030.95898148148</v>
       </c>
       <c r="M19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G20">
         <v>21</v>
@@ -1634,30 +1694,33 @@
         <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J20" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G21">
         <v>22</v>
@@ -1666,30 +1729,33 @@
         <v>37</v>
       </c>
       <c r="I21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J21" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G22">
         <v>22</v>
@@ -1698,30 +1764,33 @@
         <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J22" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G23">
         <v>23</v>
@@ -1730,30 +1799,33 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -1762,30 +1834,33 @@
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G25">
         <v>23</v>
@@ -1794,30 +1869,33 @@
         <v>38</v>
       </c>
       <c r="I25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J25" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -1826,30 +1904,33 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J26" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G27">
         <v>23</v>
@@ -1858,30 +1939,33 @@
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J27" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G28">
         <v>23</v>
@@ -1890,30 +1974,33 @@
         <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J28" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -1922,30 +2009,33 @@
         <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J29" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G30">
         <v>23</v>
@@ -1954,30 +2044,33 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J30" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G31">
         <v>23</v>
@@ -1986,30 +2079,33 @@
         <v>38</v>
       </c>
       <c r="I31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J31" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G32">
         <v>23</v>
@@ -2018,30 +2114,33 @@
         <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J32" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G33">
         <v>23</v>
@@ -2050,30 +2149,33 @@
         <v>38</v>
       </c>
       <c r="I33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J33" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G34">
         <v>23</v>
@@ -2082,30 +2184,33 @@
         <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J34" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G35">
         <v>23</v>
@@ -2114,30 +2219,33 @@
         <v>38</v>
       </c>
       <c r="I35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J35" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G36">
         <v>24</v>
@@ -2146,30 +2254,33 @@
         <v>51</v>
       </c>
       <c r="I36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J36" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M36" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G37">
         <v>24</v>
@@ -2178,30 +2289,33 @@
         <v>51</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J37" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G38">
         <v>27</v>
@@ -2210,30 +2324,33 @@
         <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J38" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G39">
         <v>28</v>
@@ -2242,30 +2359,33 @@
         <v>57</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J39" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G40">
         <v>29</v>
@@ -2274,30 +2394,33 @@
         <v>58</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J40" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G41">
         <v>30</v>
@@ -2306,30 +2429,33 @@
         <v>59</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J41" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G42">
         <v>31</v>
@@ -2338,30 +2464,33 @@
         <v>60</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J42" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G43">
         <v>32</v>
@@ -2370,30 +2499,33 @@
         <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J43" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G44">
         <v>33</v>
@@ -2402,30 +2534,33 @@
         <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J44" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G45">
         <v>34</v>
@@ -2434,30 +2569,33 @@
         <v>64</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J45" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G46">
         <v>37</v>
@@ -2466,30 +2604,33 @@
         <v>78</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J46" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G47">
         <v>39</v>
@@ -2498,30 +2639,33 @@
         <v>81</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J47" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M47" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G48">
         <v>39</v>
@@ -2530,30 +2674,33 @@
         <v>81</v>
       </c>
       <c r="I48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J48" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M48" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G49">
         <v>39</v>
@@ -2562,30 +2709,33 @@
         <v>81</v>
       </c>
       <c r="I49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J49" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M49" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G50">
         <v>39</v>
@@ -2594,30 +2744,33 @@
         <v>81</v>
       </c>
       <c r="I50" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J50" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M50" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G51">
         <v>39</v>
@@ -2626,30 +2779,33 @@
         <v>81</v>
       </c>
       <c r="I51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J51" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G52">
         <v>39</v>
@@ -2658,30 +2814,33 @@
         <v>81</v>
       </c>
       <c r="I52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J52" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G53">
         <v>39</v>
@@ -2690,30 +2849,33 @@
         <v>81</v>
       </c>
       <c r="I53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J53" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M53" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G54">
         <v>39</v>
@@ -2722,30 +2884,33 @@
         <v>81</v>
       </c>
       <c r="I54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J54" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G55">
         <v>39</v>
@@ -2754,30 +2919,33 @@
         <v>81</v>
       </c>
       <c r="I55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J55" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M55" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G56">
         <v>39</v>
@@ -2786,30 +2954,33 @@
         <v>81</v>
       </c>
       <c r="I56" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J56" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G57">
         <v>42</v>
@@ -2818,30 +2989,33 @@
         <v>84</v>
       </c>
       <c r="I57" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J57" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M57" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G58">
         <v>44</v>
@@ -2850,30 +3024,33 @@
         <v>87</v>
       </c>
       <c r="I58" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J58" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G59">
         <v>45</v>
@@ -2882,30 +3059,33 @@
         <v>88</v>
       </c>
       <c r="I59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J59" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M59" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G60">
         <v>45</v>
@@ -2914,30 +3094,33 @@
         <v>88</v>
       </c>
       <c r="I60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J60" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G61">
         <v>45</v>
@@ -2946,30 +3129,33 @@
         <v>88</v>
       </c>
       <c r="I61" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J61" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M61" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G62">
         <v>45</v>
@@ -2978,30 +3164,33 @@
         <v>88</v>
       </c>
       <c r="I62" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J62" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M62" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G63">
         <v>46</v>
@@ -3010,30 +3199,33 @@
         <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J63" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M63" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G64">
         <v>46</v>
@@ -3042,30 +3234,33 @@
         <v>90</v>
       </c>
       <c r="I64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J64" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M64" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G65">
         <v>49</v>
@@ -3074,30 +3269,33 @@
         <v>93</v>
       </c>
       <c r="I65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J65" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M65" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G66">
         <v>50</v>
@@ -3106,30 +3304,33 @@
         <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J66" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M66" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G67">
         <v>51</v>
@@ -3138,30 +3339,33 @@
         <v>95</v>
       </c>
       <c r="I67" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J67" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G68">
         <v>53</v>
@@ -3170,30 +3374,33 @@
         <v>98</v>
       </c>
       <c r="I68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J68" s="3">
         <v>45044.94196759259</v>
       </c>
       <c r="M68" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G69">
         <v>54</v>
@@ -3202,30 +3409,33 @@
         <v>99</v>
       </c>
       <c r="I69" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J69" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M69" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G70">
         <v>55</v>
@@ -3234,30 +3444,33 @@
         <v>100</v>
       </c>
       <c r="I70" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J70" s="3">
         <v>45044.97079861111</v>
       </c>
       <c r="M70" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G71">
         <v>56</v>
@@ -3266,30 +3479,33 @@
         <v>101</v>
       </c>
       <c r="I71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J71" s="3">
         <v>45044.98814814815</v>
       </c>
       <c r="M71" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G72">
         <v>57</v>
@@ -3298,30 +3514,33 @@
         <v>102</v>
       </c>
       <c r="I72" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J72" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M72" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G73">
         <v>59</v>
@@ -3330,30 +3549,33 @@
         <v>104</v>
       </c>
       <c r="I73" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J73" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M73" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G74">
         <v>60</v>
@@ -3362,30 +3584,33 @@
         <v>105</v>
       </c>
       <c r="I74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J74" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G75">
         <v>61</v>
@@ -3394,30 +3619,33 @@
         <v>106</v>
       </c>
       <c r="I75" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J75" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M75" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G76">
         <v>64</v>
@@ -3426,30 +3654,33 @@
         <v>111</v>
       </c>
       <c r="I76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J76" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G77">
         <v>65</v>
@@ -3458,30 +3689,33 @@
         <v>113</v>
       </c>
       <c r="I77" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J77" s="3">
         <v>45046.88504629629</v>
       </c>
       <c r="M77" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G78">
         <v>67</v>
@@ -3490,30 +3724,33 @@
         <v>115</v>
       </c>
       <c r="I78" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J78" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G79">
         <v>70</v>
@@ -3522,15 +3759,18 @@
         <v>119</v>
       </c>
       <c r="I79" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J79" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M79" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p36.xlsx
+++ b/files/separadas/repeat_p36.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="200">
   <si>
     <t>p36_cod</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>c1</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -985,13 +988,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,19 +1046,22 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1064,13 +1070,13 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J2" s="3">
         <v>45013.73163194444</v>
       </c>
       <c r="M2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1078,19 +1084,22 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -1099,13 +1108,13 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J3" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1113,19 +1122,22 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G4">
         <v>9</v>
@@ -1134,13 +1146,13 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J4" s="3">
         <v>45028.82005787037</v>
       </c>
       <c r="M4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1148,19 +1160,22 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -1169,13 +1184,13 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J5" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1183,19 +1198,22 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -1204,13 +1222,13 @@
         <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J6" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1218,19 +1236,22 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -1239,13 +1260,13 @@
         <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J7" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1253,19 +1274,22 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -1274,13 +1298,13 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J8" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1288,19 +1312,22 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -1309,13 +1336,13 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J9" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1323,19 +1350,22 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -1344,13 +1374,13 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J10" s="3">
         <v>45028.9031712963</v>
       </c>
       <c r="M10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1358,19 +1388,22 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -1379,13 +1412,13 @@
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J11" s="3">
         <v>45029.85457175926</v>
       </c>
       <c r="M11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1393,19 +1426,22 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G12">
         <v>16</v>
@@ -1414,13 +1450,13 @@
         <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J12" s="3">
         <v>45030.71190972222</v>
       </c>
       <c r="M12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1428,19 +1464,22 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G13">
         <v>17</v>
@@ -1449,13 +1488,13 @@
         <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J13" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1463,19 +1502,22 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G14">
         <v>17</v>
@@ -1484,13 +1526,13 @@
         <v>26</v>
       </c>
       <c r="I14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J14" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1498,19 +1540,22 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G15">
         <v>17</v>
@@ -1519,13 +1564,13 @@
         <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J15" s="3">
         <v>45030.72005787037</v>
       </c>
       <c r="M15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1533,19 +1578,22 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G16">
         <v>18</v>
@@ -1554,13 +1602,13 @@
         <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J16" s="3">
         <v>45030.79391203704</v>
       </c>
       <c r="M16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1568,19 +1616,22 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G17">
         <v>19</v>
@@ -1589,13 +1640,13 @@
         <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J17" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1603,19 +1654,22 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G18">
         <v>19</v>
@@ -1624,13 +1678,13 @@
         <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J18" s="3">
         <v>45030.94386574074</v>
       </c>
       <c r="M18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1638,19 +1692,22 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G19">
         <v>20</v>
@@ -1659,13 +1716,13 @@
         <v>33</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J19" s="3">
         <v>45030.95898148148</v>
       </c>
       <c r="M19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1673,19 +1730,22 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G20">
         <v>21</v>
@@ -1694,13 +1754,13 @@
         <v>34</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J20" s="3">
         <v>45030.97623842592</v>
       </c>
       <c r="M20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1708,19 +1768,22 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G21">
         <v>22</v>
@@ -1729,13 +1792,13 @@
         <v>37</v>
       </c>
       <c r="I21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J21" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1743,19 +1806,22 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G22">
         <v>22</v>
@@ -1764,13 +1830,13 @@
         <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J22" s="3">
         <v>45031.15133101852</v>
       </c>
       <c r="M22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1778,19 +1844,22 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G23">
         <v>23</v>
@@ -1799,13 +1868,13 @@
         <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J23" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1813,19 +1882,22 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G24">
         <v>23</v>
@@ -1834,13 +1906,13 @@
         <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J24" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1848,19 +1920,22 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G25">
         <v>23</v>
@@ -1869,13 +1944,13 @@
         <v>38</v>
       </c>
       <c r="I25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J25" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -1883,19 +1958,22 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -1904,13 +1982,13 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J26" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -1918,19 +1996,22 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G27">
         <v>23</v>
@@ -1939,13 +2020,13 @@
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J27" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -1953,19 +2034,22 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G28">
         <v>23</v>
@@ -1974,13 +2058,13 @@
         <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J28" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -1988,19 +2072,22 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -2009,13 +2096,13 @@
         <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J29" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2023,19 +2110,22 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G30">
         <v>23</v>
@@ -2044,13 +2134,13 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J30" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2058,19 +2148,22 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G31">
         <v>23</v>
@@ -2079,13 +2172,13 @@
         <v>38</v>
       </c>
       <c r="I31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J31" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2093,19 +2186,22 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G32">
         <v>23</v>
@@ -2114,13 +2210,13 @@
         <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J32" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2128,19 +2224,22 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G33">
         <v>23</v>
@@ -2149,13 +2248,13 @@
         <v>38</v>
       </c>
       <c r="I33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J33" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2163,19 +2262,22 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G34">
         <v>23</v>
@@ -2184,13 +2286,13 @@
         <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J34" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2198,19 +2300,22 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G35">
         <v>23</v>
@@ -2219,13 +2324,13 @@
         <v>38</v>
       </c>
       <c r="I35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J35" s="3">
         <v>45031.19106481481</v>
       </c>
       <c r="M35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2233,19 +2338,22 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G36">
         <v>24</v>
@@ -2254,13 +2362,13 @@
         <v>51</v>
       </c>
       <c r="I36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J36" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -2268,19 +2376,22 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G37">
         <v>24</v>
@@ -2289,13 +2400,13 @@
         <v>51</v>
       </c>
       <c r="I37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J37" s="3">
         <v>45033.69763888889</v>
       </c>
       <c r="M37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -2303,19 +2414,22 @@
       <c r="Q37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G38">
         <v>27</v>
@@ -2324,13 +2438,13 @@
         <v>56</v>
       </c>
       <c r="I38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J38" s="3">
         <v>45034.64582175926</v>
       </c>
       <c r="M38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -2338,19 +2452,22 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G39">
         <v>28</v>
@@ -2359,13 +2476,13 @@
         <v>57</v>
       </c>
       <c r="I39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J39" s="3">
         <v>45034.70144675926</v>
       </c>
       <c r="M39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -2373,19 +2490,22 @@
       <c r="Q39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G40">
         <v>29</v>
@@ -2394,13 +2514,13 @@
         <v>58</v>
       </c>
       <c r="I40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J40" s="3">
         <v>45034.89546296297</v>
       </c>
       <c r="M40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -2408,19 +2528,22 @@
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G41">
         <v>30</v>
@@ -2429,13 +2552,13 @@
         <v>59</v>
       </c>
       <c r="I41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J41" s="3">
         <v>45034.90506944444</v>
       </c>
       <c r="M41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -2443,19 +2566,22 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G42">
         <v>31</v>
@@ -2464,13 +2590,13 @@
         <v>60</v>
       </c>
       <c r="I42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J42" s="3">
         <v>45034.92369212963</v>
       </c>
       <c r="M42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -2478,19 +2604,22 @@
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G43">
         <v>32</v>
@@ -2499,13 +2628,13 @@
         <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J43" s="3">
         <v>45034.94509259259</v>
       </c>
       <c r="M43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -2513,19 +2642,22 @@
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G44">
         <v>33</v>
@@ -2534,13 +2666,13 @@
         <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J44" s="3">
         <v>45035.70458333333</v>
       </c>
       <c r="M44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -2548,19 +2680,22 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G45">
         <v>34</v>
@@ -2569,13 +2704,13 @@
         <v>64</v>
       </c>
       <c r="I45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J45" s="3">
         <v>45035.83660879629</v>
       </c>
       <c r="M45" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -2583,19 +2718,22 @@
       <c r="Q45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G46">
         <v>37</v>
@@ -2604,13 +2742,13 @@
         <v>78</v>
       </c>
       <c r="I46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J46" s="3">
         <v>45041.15349537037</v>
       </c>
       <c r="M46" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -2618,19 +2756,22 @@
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G47">
         <v>39</v>
@@ -2639,13 +2780,13 @@
         <v>81</v>
       </c>
       <c r="I47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J47" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -2653,19 +2794,22 @@
       <c r="Q47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G48">
         <v>39</v>
@@ -2674,13 +2818,13 @@
         <v>81</v>
       </c>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J48" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -2688,19 +2832,22 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G49">
         <v>39</v>
@@ -2709,13 +2856,13 @@
         <v>81</v>
       </c>
       <c r="I49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J49" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M49" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -2723,19 +2870,22 @@
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G50">
         <v>39</v>
@@ -2744,13 +2894,13 @@
         <v>81</v>
       </c>
       <c r="I50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J50" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -2758,19 +2908,22 @@
       <c r="Q50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G51">
         <v>39</v>
@@ -2779,13 +2932,13 @@
         <v>81</v>
       </c>
       <c r="I51" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J51" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M51" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -2793,19 +2946,22 @@
       <c r="Q51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G52">
         <v>39</v>
@@ -2814,13 +2970,13 @@
         <v>81</v>
       </c>
       <c r="I52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J52" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -2828,19 +2984,22 @@
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G53">
         <v>39</v>
@@ -2849,13 +3008,13 @@
         <v>81</v>
       </c>
       <c r="I53" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J53" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -2863,19 +3022,22 @@
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G54">
         <v>39</v>
@@ -2884,13 +3046,13 @@
         <v>81</v>
       </c>
       <c r="I54" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J54" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -2898,19 +3060,22 @@
       <c r="Q54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G55">
         <v>39</v>
@@ -2919,13 +3084,13 @@
         <v>81</v>
       </c>
       <c r="I55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J55" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M55" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -2933,19 +3098,22 @@
       <c r="Q55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="R55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G56">
         <v>39</v>
@@ -2954,13 +3122,13 @@
         <v>81</v>
       </c>
       <c r="I56" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J56" s="3">
         <v>45041.98872685185</v>
       </c>
       <c r="M56" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -2968,19 +3136,22 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G57">
         <v>42</v>
@@ -2989,13 +3160,13 @@
         <v>84</v>
       </c>
       <c r="I57" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J57" s="3">
         <v>45042.98253472222</v>
       </c>
       <c r="M57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -3003,19 +3174,22 @@
       <c r="Q57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G58">
         <v>44</v>
@@ -3024,13 +3198,13 @@
         <v>87</v>
       </c>
       <c r="I58" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J58" s="3">
         <v>45043.74630787037</v>
       </c>
       <c r="M58" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -3038,19 +3212,22 @@
       <c r="Q58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="R58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G59">
         <v>45</v>
@@ -3059,13 +3236,13 @@
         <v>88</v>
       </c>
       <c r="I59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J59" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M59" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -3073,19 +3250,22 @@
       <c r="Q59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G60">
         <v>45</v>
@@ -3094,13 +3274,13 @@
         <v>88</v>
       </c>
       <c r="I60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J60" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -3108,19 +3288,22 @@
       <c r="Q60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G61">
         <v>45</v>
@@ -3129,13 +3312,13 @@
         <v>88</v>
       </c>
       <c r="I61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J61" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M61" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -3143,19 +3326,22 @@
       <c r="Q61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G62">
         <v>45</v>
@@ -3164,13 +3350,13 @@
         <v>88</v>
       </c>
       <c r="I62" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J62" s="3">
         <v>45043.91252314814</v>
       </c>
       <c r="M62" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -3178,19 +3364,22 @@
       <c r="Q62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G63">
         <v>46</v>
@@ -3199,13 +3388,13 @@
         <v>90</v>
       </c>
       <c r="I63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J63" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M63" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -3213,19 +3402,22 @@
       <c r="Q63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G64">
         <v>46</v>
@@ -3234,13 +3426,13 @@
         <v>90</v>
       </c>
       <c r="I64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J64" s="3">
         <v>45043.91609953704</v>
       </c>
       <c r="M64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -3248,19 +3440,22 @@
       <c r="Q64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G65">
         <v>49</v>
@@ -3269,13 +3464,13 @@
         <v>93</v>
       </c>
       <c r="I65" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J65" s="3">
         <v>45044.5144212963</v>
       </c>
       <c r="M65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -3283,19 +3478,22 @@
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G66">
         <v>50</v>
@@ -3304,13 +3502,13 @@
         <v>94</v>
       </c>
       <c r="I66" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J66" s="3">
         <v>45044.87012731482</v>
       </c>
       <c r="M66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -3318,19 +3516,22 @@
       <c r="Q66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G67">
         <v>51</v>
@@ -3339,13 +3540,13 @@
         <v>95</v>
       </c>
       <c r="I67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J67" s="3">
         <v>45044.87517361111</v>
       </c>
       <c r="M67" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -3353,19 +3554,22 @@
       <c r="Q67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="R67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G68">
         <v>53</v>
@@ -3374,13 +3578,13 @@
         <v>98</v>
       </c>
       <c r="I68" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J68" s="3">
         <v>45044.94196759259</v>
       </c>
       <c r="M68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -3388,19 +3592,22 @@
       <c r="Q68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G69">
         <v>54</v>
@@ -3409,13 +3616,13 @@
         <v>99</v>
       </c>
       <c r="I69" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J69" s="3">
         <v>45044.95618055556</v>
       </c>
       <c r="M69" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -3423,19 +3630,22 @@
       <c r="Q69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G70">
         <v>55</v>
@@ -3444,13 +3654,13 @@
         <v>100</v>
       </c>
       <c r="I70" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J70" s="3">
         <v>45044.97079861111</v>
       </c>
       <c r="M70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -3458,19 +3668,22 @@
       <c r="Q70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="R70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G71">
         <v>56</v>
@@ -3479,13 +3692,13 @@
         <v>101</v>
       </c>
       <c r="I71" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J71" s="3">
         <v>45044.98814814815</v>
       </c>
       <c r="M71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -3493,19 +3706,22 @@
       <c r="Q71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="R71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G72">
         <v>57</v>
@@ -3514,13 +3730,13 @@
         <v>102</v>
       </c>
       <c r="I72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J72" s="3">
         <v>45045.00479166667</v>
       </c>
       <c r="M72" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -3528,19 +3744,22 @@
       <c r="Q72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="R72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G73">
         <v>59</v>
@@ -3549,13 +3768,13 @@
         <v>104</v>
       </c>
       <c r="I73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J73" s="3">
         <v>45045.12083333333</v>
       </c>
       <c r="M73" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -3563,19 +3782,22 @@
       <c r="Q73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G74">
         <v>60</v>
@@ -3584,13 +3806,13 @@
         <v>105</v>
       </c>
       <c r="I74" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J74" s="3">
         <v>45045.13675925926</v>
       </c>
       <c r="M74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -3598,19 +3820,22 @@
       <c r="Q74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E75">
         <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G75">
         <v>61</v>
@@ -3619,13 +3844,13 @@
         <v>106</v>
       </c>
       <c r="I75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J75" s="3">
         <v>45045.14796296296</v>
       </c>
       <c r="M75" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -3633,19 +3858,22 @@
       <c r="Q75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="R75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E76">
         <v>75</v>
       </c>
       <c r="F76" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G76">
         <v>64</v>
@@ -3654,13 +3882,13 @@
         <v>111</v>
       </c>
       <c r="I76" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J76" s="3">
         <v>45045.67958333333</v>
       </c>
       <c r="M76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -3668,19 +3896,22 @@
       <c r="Q76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E77">
         <v>76</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G77">
         <v>65</v>
@@ -3689,13 +3920,13 @@
         <v>113</v>
       </c>
       <c r="I77" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J77" s="3">
         <v>45046.88504629629</v>
       </c>
       <c r="M77" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -3703,19 +3934,22 @@
       <c r="Q77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="R77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E78">
         <v>77</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G78">
         <v>67</v>
@@ -3724,13 +3958,13 @@
         <v>115</v>
       </c>
       <c r="I78" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J78" s="3">
         <v>45048.69172453704</v>
       </c>
       <c r="M78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -3738,19 +3972,22 @@
       <c r="Q78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="R78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E79">
         <v>78</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G79">
         <v>70</v>
@@ -3759,18 +3996,21 @@
         <v>119</v>
       </c>
       <c r="I79" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J79" s="3">
         <v>45059.22766203704</v>
       </c>
       <c r="M79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P79">
         <v>0</v>
       </c>
       <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p36.xlsx
+++ b/files/separadas/repeat_p36.xlsx
@@ -1546,13 +1546,13 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">

--- a/files/separadas/repeat_p36.xlsx
+++ b/files/separadas/repeat_p36.xlsx
@@ -2340,7 +2340,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="40">
@@ -3780,7 +3780,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="70">
@@ -3972,7 +3972,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="74">
@@ -4068,7 +4068,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="76">
